--- a/script/13-10-2023_AlgoSize.xlsx
+++ b/script/13-10-2023_AlgoSize.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="5">
   <si>
     <t>Algorithm</t>
   </si>
@@ -386,7 +386,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -419,7 +419,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -430,7 +430,7 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -441,7 +441,7 @@
         <v>2</v>
       </c>
       <c r="C5">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -452,7 +452,7 @@
         <v>2</v>
       </c>
       <c r="C6">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -463,7 +463,7 @@
         <v>2</v>
       </c>
       <c r="C7">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -474,7 +474,7 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -485,7 +485,7 @@
         <v>2</v>
       </c>
       <c r="C9">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -507,7 +507,7 @@
         <v>2</v>
       </c>
       <c r="C11">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -518,7 +518,7 @@
         <v>2</v>
       </c>
       <c r="C12">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -540,7 +540,7 @@
         <v>2</v>
       </c>
       <c r="C14">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -551,172 +551,150 @@
         <v>2</v>
       </c>
       <c r="C15">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="B16" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C16">
-        <v>6</v>
+        <v>92</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="B17" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C17">
-        <v>5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B18" t="s">
         <v>3</v>
       </c>
       <c r="C18">
-        <v>92</v>
+        <v>68</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B19" t="s">
         <v>3</v>
       </c>
       <c r="C19">
-        <v>75</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B20" t="s">
         <v>3</v>
       </c>
       <c r="C20">
-        <v>68</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B21" t="s">
         <v>3</v>
       </c>
       <c r="C21">
-        <v>45</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B22" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C22">
-        <v>22</v>
+        <v>58</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B23" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C23">
-        <v>21</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B24" t="s">
         <v>4</v>
       </c>
       <c r="C24">
-        <v>61</v>
+        <v>51</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B25" t="s">
         <v>4</v>
       </c>
       <c r="C25">
-        <v>60</v>
+        <v>49</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B26" t="s">
         <v>4</v>
       </c>
       <c r="C26">
-        <v>59</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B27" t="s">
         <v>4</v>
       </c>
       <c r="C27">
-        <v>49</v>
+        <v>37</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B28" t="s">
         <v>4</v>
       </c>
       <c r="C28">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="1">
-        <v>5</v>
-      </c>
-      <c r="B29" t="s">
-        <v>4</v>
-      </c>
-      <c r="C29">
         <v>31</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="1">
-        <v>6</v>
-      </c>
-      <c r="B30" t="s">
-        <v>4</v>
-      </c>
-      <c r="C30">
-        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/script/13-10-2023_AlgoSize.xlsx
+++ b/script/13-10-2023_AlgoSize.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="7">
   <si>
     <t>Algorithm</t>
   </si>
@@ -22,13 +22,19 @@
     <t>Size</t>
   </si>
   <si>
-    <t>Spinglass</t>
+    <t>Walktrap</t>
   </si>
   <si>
-    <t>Girvan Newman</t>
+    <t>Leiden</t>
   </si>
   <si>
-    <t>Belief</t>
+    <t>Louvain</t>
+  </si>
+  <si>
+    <t>RB Pots</t>
+  </si>
+  <si>
+    <t>RBer Pots</t>
   </si>
 </sst>
 </file>
@@ -386,7 +392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:C86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -408,7 +414,7 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -419,7 +425,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -430,7 +436,7 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -441,7 +447,7 @@
         <v>2</v>
       </c>
       <c r="C5">
-        <v>31</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -452,7 +458,7 @@
         <v>2</v>
       </c>
       <c r="C6">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -463,7 +469,7 @@
         <v>2</v>
       </c>
       <c r="C7">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -485,7 +491,7 @@
         <v>2</v>
       </c>
       <c r="C9">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -496,7 +502,7 @@
         <v>2</v>
       </c>
       <c r="C10">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -507,7 +513,7 @@
         <v>2</v>
       </c>
       <c r="C11">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -518,7 +524,7 @@
         <v>2</v>
       </c>
       <c r="C12">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -529,7 +535,7 @@
         <v>2</v>
       </c>
       <c r="C13">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -551,150 +557,788 @@
         <v>2</v>
       </c>
       <c r="C15">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C16">
-        <v>92</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B17" t="s">
         <v>3</v>
       </c>
       <c r="C17">
-        <v>75</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B18" t="s">
         <v>3</v>
       </c>
       <c r="C18">
-        <v>68</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B19" t="s">
         <v>3</v>
       </c>
       <c r="C19">
-        <v>45</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B20" t="s">
         <v>3</v>
       </c>
       <c r="C20">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B21" t="s">
         <v>3</v>
       </c>
       <c r="C21">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B22" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C22">
-        <v>58</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B23" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C23">
-        <v>55</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B24" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C24">
-        <v>51</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="1">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C25">
-        <v>49</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="1">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B26" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C26">
-        <v>42</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B27" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C27">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="1">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B28" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C28">
-        <v>31</v>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1">
+        <v>12</v>
+      </c>
+      <c r="B29" t="s">
+        <v>3</v>
+      </c>
+      <c r="C29">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1">
+        <v>13</v>
+      </c>
+      <c r="B30" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1">
+        <v>14</v>
+      </c>
+      <c r="B31" t="s">
+        <v>3</v>
+      </c>
+      <c r="C31">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="1">
+        <v>15</v>
+      </c>
+      <c r="B32" t="s">
+        <v>3</v>
+      </c>
+      <c r="C32">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="1">
+        <v>0</v>
+      </c>
+      <c r="B33" t="s">
+        <v>4</v>
+      </c>
+      <c r="C33">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1">
+        <v>1</v>
+      </c>
+      <c r="B34" t="s">
+        <v>4</v>
+      </c>
+      <c r="C34">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="1">
+        <v>2</v>
+      </c>
+      <c r="B35" t="s">
+        <v>4</v>
+      </c>
+      <c r="C35">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="1">
+        <v>3</v>
+      </c>
+      <c r="B36" t="s">
+        <v>4</v>
+      </c>
+      <c r="C36">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="1">
+        <v>4</v>
+      </c>
+      <c r="B37" t="s">
+        <v>4</v>
+      </c>
+      <c r="C37">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="1">
+        <v>5</v>
+      </c>
+      <c r="B38" t="s">
+        <v>4</v>
+      </c>
+      <c r="C38">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="1">
+        <v>6</v>
+      </c>
+      <c r="B39" t="s">
+        <v>4</v>
+      </c>
+      <c r="C39">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="1">
+        <v>7</v>
+      </c>
+      <c r="B40" t="s">
+        <v>4</v>
+      </c>
+      <c r="C40">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="1">
+        <v>8</v>
+      </c>
+      <c r="B41" t="s">
+        <v>4</v>
+      </c>
+      <c r="C41">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="1">
+        <v>9</v>
+      </c>
+      <c r="B42" t="s">
+        <v>4</v>
+      </c>
+      <c r="C42">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="1">
+        <v>10</v>
+      </c>
+      <c r="B43" t="s">
+        <v>4</v>
+      </c>
+      <c r="C43">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="1">
+        <v>11</v>
+      </c>
+      <c r="B44" t="s">
+        <v>4</v>
+      </c>
+      <c r="C44">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="1">
+        <v>12</v>
+      </c>
+      <c r="B45" t="s">
+        <v>4</v>
+      </c>
+      <c r="C45">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="1">
+        <v>13</v>
+      </c>
+      <c r="B46" t="s">
+        <v>4</v>
+      </c>
+      <c r="C46">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="1">
+        <v>0</v>
+      </c>
+      <c r="B47" t="s">
+        <v>5</v>
+      </c>
+      <c r="C47">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="1">
+        <v>1</v>
+      </c>
+      <c r="B48" t="s">
+        <v>5</v>
+      </c>
+      <c r="C48">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="1">
+        <v>2</v>
+      </c>
+      <c r="B49" t="s">
+        <v>5</v>
+      </c>
+      <c r="C49">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="1">
+        <v>3</v>
+      </c>
+      <c r="B50" t="s">
+        <v>5</v>
+      </c>
+      <c r="C50">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="1">
+        <v>4</v>
+      </c>
+      <c r="B51" t="s">
+        <v>5</v>
+      </c>
+      <c r="C51">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="1">
+        <v>5</v>
+      </c>
+      <c r="B52" t="s">
+        <v>5</v>
+      </c>
+      <c r="C52">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="1">
+        <v>6</v>
+      </c>
+      <c r="B53" t="s">
+        <v>5</v>
+      </c>
+      <c r="C53">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="1">
+        <v>7</v>
+      </c>
+      <c r="B54" t="s">
+        <v>5</v>
+      </c>
+      <c r="C54">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="1">
+        <v>8</v>
+      </c>
+      <c r="B55" t="s">
+        <v>5</v>
+      </c>
+      <c r="C55">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="1">
+        <v>9</v>
+      </c>
+      <c r="B56" t="s">
+        <v>5</v>
+      </c>
+      <c r="C56">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="1">
+        <v>10</v>
+      </c>
+      <c r="B57" t="s">
+        <v>5</v>
+      </c>
+      <c r="C57">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="1">
+        <v>11</v>
+      </c>
+      <c r="B58" t="s">
+        <v>5</v>
+      </c>
+      <c r="C58">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="1">
+        <v>12</v>
+      </c>
+      <c r="B59" t="s">
+        <v>5</v>
+      </c>
+      <c r="C59">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="1">
+        <v>13</v>
+      </c>
+      <c r="B60" t="s">
+        <v>5</v>
+      </c>
+      <c r="C60">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="1">
+        <v>14</v>
+      </c>
+      <c r="B61" t="s">
+        <v>5</v>
+      </c>
+      <c r="C61">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="1">
+        <v>15</v>
+      </c>
+      <c r="B62" t="s">
+        <v>5</v>
+      </c>
+      <c r="C62">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="1">
+        <v>0</v>
+      </c>
+      <c r="B63" t="s">
+        <v>6</v>
+      </c>
+      <c r="C63">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" s="1">
+        <v>1</v>
+      </c>
+      <c r="B64" t="s">
+        <v>6</v>
+      </c>
+      <c r="C64">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" s="1">
+        <v>2</v>
+      </c>
+      <c r="B65" t="s">
+        <v>6</v>
+      </c>
+      <c r="C65">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" s="1">
+        <v>3</v>
+      </c>
+      <c r="B66" t="s">
+        <v>6</v>
+      </c>
+      <c r="C66">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" s="1">
+        <v>4</v>
+      </c>
+      <c r="B67" t="s">
+        <v>6</v>
+      </c>
+      <c r="C67">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" s="1">
+        <v>5</v>
+      </c>
+      <c r="B68" t="s">
+        <v>6</v>
+      </c>
+      <c r="C68">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" s="1">
+        <v>6</v>
+      </c>
+      <c r="B69" t="s">
+        <v>6</v>
+      </c>
+      <c r="C69">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" s="1">
+        <v>7</v>
+      </c>
+      <c r="B70" t="s">
+        <v>6</v>
+      </c>
+      <c r="C70">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" s="1">
+        <v>8</v>
+      </c>
+      <c r="B71" t="s">
+        <v>6</v>
+      </c>
+      <c r="C71">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" s="1">
+        <v>9</v>
+      </c>
+      <c r="B72" t="s">
+        <v>6</v>
+      </c>
+      <c r="C72">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" s="1">
+        <v>10</v>
+      </c>
+      <c r="B73" t="s">
+        <v>6</v>
+      </c>
+      <c r="C73">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" s="1">
+        <v>11</v>
+      </c>
+      <c r="B74" t="s">
+        <v>6</v>
+      </c>
+      <c r="C74">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" s="1">
+        <v>12</v>
+      </c>
+      <c r="B75" t="s">
+        <v>6</v>
+      </c>
+      <c r="C75">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" s="1">
+        <v>13</v>
+      </c>
+      <c r="B76" t="s">
+        <v>6</v>
+      </c>
+      <c r="C76">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" s="1">
+        <v>14</v>
+      </c>
+      <c r="B77" t="s">
+        <v>6</v>
+      </c>
+      <c r="C77">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" s="1">
+        <v>15</v>
+      </c>
+      <c r="B78" t="s">
+        <v>6</v>
+      </c>
+      <c r="C78">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" s="1">
+        <v>16</v>
+      </c>
+      <c r="B79" t="s">
+        <v>6</v>
+      </c>
+      <c r="C79">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" s="1">
+        <v>17</v>
+      </c>
+      <c r="B80" t="s">
+        <v>6</v>
+      </c>
+      <c r="C80">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" s="1">
+        <v>18</v>
+      </c>
+      <c r="B81" t="s">
+        <v>6</v>
+      </c>
+      <c r="C81">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" s="1">
+        <v>19</v>
+      </c>
+      <c r="B82" t="s">
+        <v>6</v>
+      </c>
+      <c r="C82">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" s="1">
+        <v>20</v>
+      </c>
+      <c r="B83" t="s">
+        <v>6</v>
+      </c>
+      <c r="C83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" s="1">
+        <v>21</v>
+      </c>
+      <c r="B84" t="s">
+        <v>6</v>
+      </c>
+      <c r="C84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" s="1">
+        <v>22</v>
+      </c>
+      <c r="B85" t="s">
+        <v>6</v>
+      </c>
+      <c r="C85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" s="1">
+        <v>23</v>
+      </c>
+      <c r="B86" t="s">
+        <v>6</v>
+      </c>
+      <c r="C86">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
